--- a/data/case1/14/Qlm2_14.xlsx
+++ b/data/case1/14/Qlm2_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.29174180782811732</v>
+        <v>-0.25625521910831139</v>
       </c>
       <c r="B1" s="0">
-        <v>0.29145618957943498</v>
+        <v>0.25603532308632282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.17559799471988757</v>
+        <v>-0.17669172956924406</v>
       </c>
       <c r="B2" s="0">
-        <v>0.1751137895141861</v>
+        <v>0.17619849683908306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.1254096886824172</v>
+        <v>-0.1264942307940391</v>
       </c>
       <c r="B3" s="0">
-        <v>0.12509054142259401</v>
+        <v>0.12621488001303938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.11709054146957243</v>
+        <v>-0.1182148800789804</v>
       </c>
       <c r="B4" s="0">
-        <v>0.11654728878365184</v>
+        <v>0.11758312223434864</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.11354728881175102</v>
+        <v>-0.1145831222745608</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11168945640105221</v>
+        <v>0.11241265536480682</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.01247228149130386</v>
+        <v>-0.022472789868288601</v>
       </c>
       <c r="B6" s="0">
-        <v>0.012291493097150052</v>
+        <v>0.0223068921612537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0022914931649862247</v>
+        <v>-0.012306892259792424</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0022595131632137111</v>
+        <v>0.012280299450244225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0077404867688306567</v>
+        <v>-0.0022802995497350764</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0077751619240093994</v>
+        <v>0.0022610953436736914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0097751618922305994</v>
+        <v>-0.00026109539406160565</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.009798342068781718</v>
+        <v>0.00025198679015092651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.011798342037753429</v>
+        <v>0.0017480131592222392</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.011798433019960086</v>
+        <v>-0.0017476697768028515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.014798432984580501</v>
+        <v>0.0047476697199666518</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.014800292614055799</v>
+        <v>-0.0047475344556406895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0093529726763406096</v>
+        <v>-0.047286421592022787</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0092942623297465055</v>
+        <v>0.04692971253807432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0057942623680693472</v>
+        <v>-0.017168856744901539</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0057739716774545258</v>
+        <v>0.017081341482711565</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0022260282639487983</v>
+        <v>-0.0090813415815302889</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.002228119880808066</v>
+        <v>0.0090528188764045225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0032281198534205302</v>
+        <v>-0.0080528189324722277</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0032284410197593871</v>
+        <v>0.008034400298785549</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.02318301378767762</v>
+        <v>-0.0060344003617198716</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.023292389396232238</v>
+        <v>0.0060034536489790291</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003400069173324</v>
+        <v>-0.0040034537129605141</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999616355808</v>
+        <v>0.0039999999233764072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.063126267971860273</v>
+        <v>-0.016104087050198501</v>
       </c>
       <c r="B18" s="0">
-        <v>0.063036673789202524</v>
+        <v>0.016091395934637376</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091722643309044</v>
+        <v>-0.012091395961800977</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016793873725007</v>
+        <v>0.012016627980696803</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080167938953366047</v>
+        <v>-0.0080166280099707166</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056875365226432</v>
+        <v>0.0080056539495956258</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056875583589502</v>
+        <v>-0.0040056539791661905</v>
       </c>
       <c r="B21" s="0">
-        <v>0.00399999997799938</v>
+        <v>0.0039999999701967326</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045704100857593133</v>
+        <v>-0.045704266081440181</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045493114004571567</v>
+        <v>0.045493342838904383</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040493114036264544</v>
+        <v>-0.040493342883209493</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097870685428916</v>
+        <v>0.040097858337479586</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097870786562666</v>
+        <v>-0.020097858478985486</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999897555298</v>
+        <v>0.019999999856548101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.09721717494175941</v>
+        <v>-0.097226234445789927</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097094196837494096</v>
+        <v>0.097103212436339348</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094594196873005743</v>
+        <v>-0.094603212489666078</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094435899059142514</v>
+        <v>0.094444536338917473</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091935899096565965</v>
+        <v>-0.091944536394632959</v>
       </c>
       <c r="B27" s="0">
-        <v>0.09099903666471576</v>
+        <v>0.091002982232244456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.088999036708756307</v>
+        <v>-0.089002982298315381</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088357600532853908</v>
+        <v>0.088358382962569593</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081357600605387326</v>
+        <v>-0.081358383068386608</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081171566567221021</v>
+        <v>0.081171630709741649</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021171566878816606</v>
+        <v>-0.021171631149241144</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023664684928001</v>
+        <v>0.021023049174598629</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023664762593313</v>
+        <v>-0.014023049288597988</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001374454412741</v>
+        <v>0.014000989634155303</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040013745458047367</v>
+        <v>-0.0040009897672543815</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999351998383</v>
+        <v>0.0039999999039519452</v>
       </c>
     </row>
   </sheetData>
